--- a/social_data.xlsx
+++ b/social_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/10d5f26f0755ba94/BBB-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_6A69D6BF87905310DF982A1159FF28B05FFDE5B0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B017B908-4141-4BAC-B430-0F344050A6E6}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_6A69D6BF8750582F2F3B2211591D80716611EE11" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D57A0727-08A0-484A-932D-FEF8E645C041}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
   <si>
     <t>user_insta</t>
   </si>
@@ -34,9 +34,15 @@
     <t>followers_tt</t>
   </si>
   <si>
+    <t>total_likes_5days</t>
+  </si>
+  <si>
     <t>like_mean_5days</t>
   </si>
   <si>
+    <t>total_rts_5days</t>
+  </si>
+  <si>
     <t>rt_mean_5days</t>
   </si>
   <si>
@@ -49,6 +55,12 @@
     <t>date</t>
   </si>
   <si>
+    <t>rt_follower</t>
+  </si>
+  <si>
+    <t>likes_follower</t>
+  </si>
+  <si>
     <t>Pedro Scooby</t>
   </si>
   <si>
@@ -58,7 +70,7 @@
     <t>PedroScooby</t>
   </si>
   <si>
-    <t>2022YYY-56M-03/12/22D</t>
+    <t>2022-03-12</t>
   </si>
   <si>
     <t>Arthur Aguiar</t>
@@ -514,23 +526,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,343 +568,433 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>4092508</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E2">
-        <v>408152</v>
-      </c>
-      <c r="F2">
-        <v>1560.24</v>
+        <v>408194</v>
       </c>
       <c r="G2">
-        <v>77.059701492537314</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4136</v>
+      </c>
+      <c r="H2">
+        <v>167</v>
+      </c>
+      <c r="I2">
+        <v>0.6028880866425993</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2">
+        <v>4.0911919332474271E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>12248481</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>2066149</v>
-      </c>
-      <c r="F3">
-        <v>1899.461883408072</v>
+        <v>2066211</v>
       </c>
       <c r="G3">
-        <v>127.5334821428571</v>
-      </c>
-      <c r="J3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4136</v>
+      </c>
+      <c r="H3">
+        <v>167</v>
+      </c>
+      <c r="I3">
+        <v>0.6028880866425993</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3">
+        <v>8.0824272061275442E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>5290181</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>363604</v>
-      </c>
-      <c r="F4">
-        <v>2074.456747404844</v>
+        <v>363709</v>
       </c>
       <c r="G4">
-        <v>133.79584775086511</v>
-      </c>
-      <c r="J4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4136</v>
+      </c>
+      <c r="H4">
+        <v>167</v>
+      </c>
+      <c r="I4">
+        <v>0.6028880866425993</v>
+      </c>
+      <c r="L4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4">
+        <v>4.5915828313294421E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>2565581</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>647256</v>
-      </c>
-      <c r="F5">
-        <v>1875.3040540540539</v>
+        <v>647319</v>
       </c>
       <c r="G5">
-        <v>71.429054054054049</v>
-      </c>
-      <c r="J5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4136</v>
+      </c>
+      <c r="H5">
+        <v>167</v>
+      </c>
+      <c r="I5">
+        <v>0.6028880866425993</v>
+      </c>
+      <c r="L5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5">
+        <v>2.579871747932626E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>881134</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>100021</v>
-      </c>
-      <c r="F6">
-        <v>687.53543307086613</v>
+        <v>100046</v>
       </c>
       <c r="G6">
-        <v>36.5</v>
-      </c>
-      <c r="J6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4136</v>
+      </c>
+      <c r="H6">
+        <v>167</v>
+      </c>
+      <c r="I6">
+        <v>0.6028880866425993</v>
+      </c>
+      <c r="L6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6">
+        <v>1.6692321532095239E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>2746130</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E7">
-        <v>306267</v>
-      </c>
-      <c r="F7">
-        <v>780.41666666666663</v>
+        <v>306278</v>
       </c>
       <c r="G7">
-        <v>56.383333333333333</v>
-      </c>
-      <c r="J7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4136</v>
+      </c>
+      <c r="H7">
+        <v>167</v>
+      </c>
+      <c r="I7">
+        <v>0.6028880866425993</v>
+      </c>
+      <c r="L7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7">
+        <v>5.4525627044711017E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C8">
         <v>1053104</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E8">
-        <v>165176</v>
-      </c>
-      <c r="F8">
-        <v>458.37109375</v>
+        <v>165189</v>
       </c>
       <c r="G8">
-        <v>34.2734375</v>
-      </c>
-      <c r="J8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4136</v>
+      </c>
+      <c r="H8">
+        <v>167</v>
+      </c>
+      <c r="I8">
+        <v>0.6028880866425993</v>
+      </c>
+      <c r="L8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8">
+        <v>1.0109631997287951E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C9">
         <v>751474</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E9">
-        <v>125695</v>
-      </c>
-      <c r="F9">
-        <v>365.49264705882348</v>
+        <v>125706</v>
       </c>
       <c r="G9">
-        <v>17.536764705882351</v>
-      </c>
-      <c r="J9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4136</v>
+      </c>
+      <c r="H9">
+        <v>167</v>
+      </c>
+      <c r="I9">
+        <v>0.6028880866425993</v>
+      </c>
+      <c r="L9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9">
+        <v>1.328496650915628E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C10">
         <v>2069427</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E10">
-        <v>142987</v>
-      </c>
-      <c r="F10">
-        <v>472.19662921348322</v>
+        <v>142997</v>
       </c>
       <c r="G10">
-        <v>34.567415730337082</v>
-      </c>
-      <c r="J10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4136</v>
+      </c>
+      <c r="H10">
+        <v>167</v>
+      </c>
+      <c r="I10">
+        <v>0.6028880866425993</v>
+      </c>
+      <c r="L10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10">
+        <v>1.167856668321713E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C11">
         <v>4119570</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E11">
-        <v>162150</v>
-      </c>
-      <c r="F11">
-        <v>179.7350427350427</v>
+        <v>162160</v>
       </c>
       <c r="G11">
-        <v>10.38461538461539</v>
-      </c>
-      <c r="J11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4136</v>
+      </c>
+      <c r="H11">
+        <v>167</v>
+      </c>
+      <c r="I11">
+        <v>0.6028880866425993</v>
+      </c>
+      <c r="L11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11">
+        <v>1.0298470646275279E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C12">
         <v>2799711</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E12">
-        <v>363554</v>
-      </c>
-      <c r="F12">
-        <v>1157.361256544503</v>
+        <v>363567</v>
       </c>
       <c r="G12">
-        <v>77.078534031413611</v>
-      </c>
-      <c r="J12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4136</v>
+      </c>
+      <c r="H12">
+        <v>167</v>
+      </c>
+      <c r="I12">
+        <v>0.6028880866425993</v>
+      </c>
+      <c r="L12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12">
+        <v>4.5933761865075761E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C13">
         <v>1168689</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E13">
         <v>22527</v>
       </c>
-      <c r="F13">
-        <v>206.68181818181819</v>
-      </c>
       <c r="G13">
-        <v>21.811688311688311</v>
-      </c>
-      <c r="J13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4136</v>
+      </c>
+      <c r="H13">
+        <v>167</v>
+      </c>
+      <c r="I13">
+        <v>0.6028880866425993</v>
+      </c>
+      <c r="L13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13">
+        <v>7.4133262307453278E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C14">
         <v>968241</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E14">
-        <v>79563</v>
-      </c>
-      <c r="F14">
-        <v>14.90974729241877</v>
+        <v>79567</v>
       </c>
       <c r="G14">
-        <v>0.6028880866425993</v>
-      </c>
-      <c r="J14" t="s">
-        <v>12</v>
+        <v>4136</v>
+      </c>
+      <c r="H14">
+        <v>167</v>
+      </c>
+      <c r="I14">
+        <v>0.6028880866425993</v>
+      </c>
+      <c r="L14" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14">
+        <v>2.0988600801839959E-3</v>
       </c>
     </row>
   </sheetData>
